--- a/biology/Zoologie/Alatina_alata/Alatina_alata.xlsx
+++ b/biology/Zoologie/Alatina_alata/Alatina_alata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alatina alata est une espèce de cuboméduses de la famille des Alatinidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Alatina alata a été initialement décrite en 1830 par Auguste Reynaud (d) dans l'ouvrage de René Primevère Lesson « Centurie zoologique, ou, Choix d'animaux rares, nouveaux ou imparfaitement connus », sous le protonyme de Carybdea (Medusa) alata[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Alatina alata a été initialement décrite en 1830 par Auguste Reynaud (d) dans l'ouvrage de René Primevère Lesson « Centurie zoologique, ou, Choix d'animaux rares, nouveaux ou imparfaitement connus », sous le protonyme de Carybdea (Medusa) alata.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Océan Atlantique tropical, mer des Caraïbes, golfe du Mexique.
 </t>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette méduse a le corps translucide, légèrement bleuté. Elle mesure de 5 à 10 cm, sans les tentacules. 
 Elle nage au-dessus de récif ou du sable à faible profondeur. Sa position de nage peut-être horizontale. On la trouve solitaire ou en groupe. De nuit, elles sont attirées par la lumière. Elle mange du poisson qu'elle tue grâce aux nématocystes de ces tentacules.
@@ -605,7 +623,9 @@
           <t>Piqûre</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèce très urticante dont le contact peut provoquer de fortes brûlures, des difficultés respiratoires jusqu'à la syncope. Réaction allergique possible provoquant une attaque cardiaque.
 </t>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>R. P. Lesson, Centurie zoologique, ou, Choix d'animaux rares, nouveaux ou imparfaitement connus : enrichi de planches inédites, dessinées d'après nature par M. Prêtre, gravées et coloriées avec le plus grand soin, 1830, 244 p. (DOI 10.5962/BHL.TITLE.41400, lire en ligne)</t>
         </is>
